--- a/biology/Botanique/Balsamine_de_Balfour/Balsamine_de_Balfour.xlsx
+++ b/biology/Botanique/Balsamine_de_Balfour/Balsamine_de_Balfour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens balfourii
 La Balsamine de Balfour, aussi parfois appelée Impatiente de Balfour (Impatiens balfourii) est une espèce de plante à fleurs de la famille des Balsaminaceae.
-Elle est originaire de l'Himalaya et s'est naturalisée en certains endroits d'Europe à partir des jardins. Elle est considérée comme invasive en Suisse, on la rencontre principalement sur le plateau et au Tessin. La balsamine de Balfour concurrence les espèces indigènes dans les clairières et nuit au renouvellement de la forêt[1],[2]. Son nom est un hommage au botaniste écossais Isaac Bayley Balfour.
+Elle est originaire de l'Himalaya et s'est naturalisée en certains endroits d'Europe à partir des jardins. Elle est considérée comme invasive en Suisse, on la rencontre principalement sur le plateau et au Tessin. La balsamine de Balfour concurrence les espèces indigènes dans les clairières et nuit au renouvellement de la forêt,. Son nom est un hommage au botaniste écossais Isaac Bayley Balfour.
 </t>
         </is>
       </c>
@@ -513,11 +525,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle glabre se ramifiant, aux feuilles alternes, ovales, pointues, dentées, pétiolées, aux fleurs à casque blanc et pétales inférieurs roses, à éperon grêle, en grappe au-dessus des dernières feuilles.
-Caractéristiques
-Organes reproducteurs :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Balsamine_de_Balfour</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balsamine_de_Balfour</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : racème simple
 répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame, autogame
@@ -533,31 +582,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Balsamine_de_Balfour</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Balsamine_de_Balfour</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est classée NA (Non Applicable) par l'UICN. Elle n'est pas soumise à évaluation car introduite récemment.
 </t>
